--- a/ms/nature communications ms/Supplementary/datasets/sexual_selection.xlsx
+++ b/ms/nature communications ms/Supplementary/datasets/sexual_selection.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/final model output and tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurenharrison/Documents/GitHub/sex_meta/ms/nature communications ms/Supplementary/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA1A7F5-9DC0-0648-8684-1195B450E78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1531DB7F-EB62-7348-A751-C8997C59C895}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16960" yWindow="780" windowWidth="26020" windowHeight="19480" xr2:uid="{38AD479F-873C-3741-8E04-30BB071CD2CC}"/>
+    <workbookView xWindow="6960" yWindow="460" windowWidth="26020" windowHeight="19480" activeTab="2" xr2:uid="{38AD479F-873C-3741-8E04-30BB071CD2CC}"/>
   </bookViews>
   <sheets>
     <sheet name="SSD" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3135" uniqueCount="770">
   <si>
     <t>species_no</t>
   </si>
@@ -1028,9 +1028,6 @@
     <t>Warburton et al (2013) Biol J Linn Soc 109:923-931</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Huchard et al (2017) J Evol Biol 30:128-140</t>
   </si>
   <si>
@@ -1844,9 +1841,6 @@
     <t xml:space="preserve">Capreolus capreolus </t>
   </si>
   <si>
-    <t>Vanp_ et al (2007) Behav Ecol 309-316</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carcinus maenas </t>
   </si>
   <si>
@@ -2301,14 +2295,87 @@
   </si>
   <si>
     <t>parental_care</t>
+  </si>
+  <si>
+    <t>Magellan &amp; Garcia-Berthou (2015) Rev Fish Biol Fisheries 25:537-549</t>
+  </si>
+  <si>
+    <t>Vanpe et al (2007) Behav Ecol 309-316</t>
+  </si>
+  <si>
+    <t>in text</t>
+  </si>
+  <si>
+    <t>assumed maternal because spiders usually are - can't find a good reference for this species</t>
+  </si>
+  <si>
+    <t>based on closely related cichlids - Lehtonen and Wong (2017) Anim Behav 124:145-151</t>
+  </si>
+  <si>
+    <t>Warner &amp; Shine (2008) Anim Behav 75:861-870</t>
+  </si>
+  <si>
+    <t>McKaye &amp; Murry (2008) Caribbean J Sci 44(1):13-20</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lichtenstein </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2018) Am Nat 192(5):552-563</t>
+    </r>
+  </si>
+  <si>
+    <t>Simcox et al (2005) Anim Behav 70:1429-1437</t>
+  </si>
+  <si>
+    <t>Yanagi &amp; Tuda (2010) Funct Ecol 24:383-391</t>
+  </si>
+  <si>
+    <t>Rehling &amp; Trillmich (2007) Behav Ecol &amp; Sociobiol 62:149-157</t>
+  </si>
+  <si>
+    <t>Symons et al (2011) PLoS One 6:e20576</t>
+  </si>
+  <si>
+    <t>Hamilton III et al (1986) Ethol 71:63-73</t>
+  </si>
+  <si>
+    <t>assumed maternal because of sexual cannibalism - males should be unable to provide any care</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2654,7 +2721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C59596-BBC1-4444-B6C3-16AC6CDFF0FF}">
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
@@ -2725,7 +2792,7 @@
         <v>253</v>
       </c>
       <c r="I2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -2754,7 +2821,7 @@
         <v>254</v>
       </c>
       <c r="I3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2783,7 +2850,7 @@
         <v>255</v>
       </c>
       <c r="I4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -2841,7 +2908,7 @@
         <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -2870,7 +2937,7 @@
         <v>253</v>
       </c>
       <c r="I7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -2899,7 +2966,7 @@
         <v>254</v>
       </c>
       <c r="I8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -2925,7 +2992,7 @@
         <v>253</v>
       </c>
       <c r="I9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -2954,7 +3021,7 @@
         <v>257</v>
       </c>
       <c r="I10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -2983,7 +3050,7 @@
         <v>258</v>
       </c>
       <c r="I11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3012,7 +3079,7 @@
         <v>257</v>
       </c>
       <c r="I12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3041,7 +3108,7 @@
         <v>253</v>
       </c>
       <c r="I13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3070,7 +3137,7 @@
         <v>253</v>
       </c>
       <c r="I14" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3099,7 +3166,7 @@
         <v>253</v>
       </c>
       <c r="I15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3128,7 +3195,7 @@
         <v>253</v>
       </c>
       <c r="I16" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -3157,7 +3224,7 @@
         <v>253</v>
       </c>
       <c r="I17" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -3186,7 +3253,7 @@
         <v>253</v>
       </c>
       <c r="I18" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -3215,7 +3282,7 @@
         <v>257</v>
       </c>
       <c r="I19" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -3244,7 +3311,7 @@
         <v>257</v>
       </c>
       <c r="I20" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -3273,7 +3340,7 @@
         <v>256</v>
       </c>
       <c r="I21" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3302,7 +3369,7 @@
         <v>256</v>
       </c>
       <c r="I22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3331,7 +3398,7 @@
         <v>256</v>
       </c>
       <c r="I23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -3360,7 +3427,7 @@
         <v>253</v>
       </c>
       <c r="I24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -3412,7 +3479,7 @@
         <v>253</v>
       </c>
       <c r="I26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -3441,7 +3508,7 @@
         <v>253</v>
       </c>
       <c r="I27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -3470,7 +3537,7 @@
         <v>253</v>
       </c>
       <c r="I28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -3499,7 +3566,7 @@
         <v>253</v>
       </c>
       <c r="I29" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -3528,7 +3595,7 @@
         <v>256</v>
       </c>
       <c r="I30" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -3557,7 +3624,7 @@
         <v>254</v>
       </c>
       <c r="I31" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -3586,7 +3653,7 @@
         <v>253</v>
       </c>
       <c r="I32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -3615,7 +3682,7 @@
         <v>257</v>
       </c>
       <c r="I33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -3644,7 +3711,7 @@
         <v>257</v>
       </c>
       <c r="I34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -3673,7 +3740,7 @@
         <v>259</v>
       </c>
       <c r="I35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -3725,7 +3792,7 @@
         <v>253</v>
       </c>
       <c r="I37" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -3754,7 +3821,7 @@
         <v>253</v>
       </c>
       <c r="I38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -3783,7 +3850,7 @@
         <v>253</v>
       </c>
       <c r="I39" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -3812,7 +3879,7 @@
         <v>253</v>
       </c>
       <c r="I40" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -3841,7 +3908,7 @@
         <v>253</v>
       </c>
       <c r="I41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -3870,7 +3937,7 @@
         <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -3899,7 +3966,7 @@
         <v>260</v>
       </c>
       <c r="I43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -3928,7 +3995,7 @@
         <v>261</v>
       </c>
       <c r="I44" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -3957,7 +4024,7 @@
         <v>253</v>
       </c>
       <c r="I45" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -3986,7 +4053,7 @@
         <v>254</v>
       </c>
       <c r="I46" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -4015,7 +4082,7 @@
         <v>254</v>
       </c>
       <c r="I47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -4044,7 +4111,7 @@
         <v>253</v>
       </c>
       <c r="I48" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -4073,7 +4140,7 @@
         <v>253</v>
       </c>
       <c r="I49" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -4131,7 +4198,7 @@
         <v>253</v>
       </c>
       <c r="I51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -4160,7 +4227,7 @@
         <v>253</v>
       </c>
       <c r="I52" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -4189,7 +4256,7 @@
         <v>254</v>
       </c>
       <c r="I53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -4218,7 +4285,7 @@
         <v>253</v>
       </c>
       <c r="I54" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -4247,7 +4314,7 @@
         <v>256</v>
       </c>
       <c r="I55" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -4276,7 +4343,7 @@
         <v>253</v>
       </c>
       <c r="I56" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -4305,7 +4372,7 @@
         <v>253</v>
       </c>
       <c r="I57" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -4334,7 +4401,7 @@
         <v>254</v>
       </c>
       <c r="I58" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -4386,7 +4453,7 @@
         <v>253</v>
       </c>
       <c r="I60" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -4415,7 +4482,7 @@
         <v>253</v>
       </c>
       <c r="I61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -4444,7 +4511,7 @@
         <v>253</v>
       </c>
       <c r="I62" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -4473,7 +4540,7 @@
         <v>253</v>
       </c>
       <c r="I63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -4502,7 +4569,7 @@
         <v>254</v>
       </c>
       <c r="I64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -4531,7 +4598,7 @@
         <v>253</v>
       </c>
       <c r="I65" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -4560,7 +4627,7 @@
         <v>256</v>
       </c>
       <c r="I66" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -4589,7 +4656,7 @@
         <v>257</v>
       </c>
       <c r="I67" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -4618,7 +4685,7 @@
         <v>253</v>
       </c>
       <c r="I68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -4647,7 +4714,7 @@
         <v>253</v>
       </c>
       <c r="I69" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -4676,7 +4743,7 @@
         <v>262</v>
       </c>
       <c r="I70" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -4728,7 +4795,7 @@
         <v>253</v>
       </c>
       <c r="I72" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -4757,7 +4824,7 @@
         <v>263</v>
       </c>
       <c r="I73" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -4786,7 +4853,7 @@
         <v>264</v>
       </c>
       <c r="I74" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -4815,7 +4882,7 @@
         <v>253</v>
       </c>
       <c r="I75" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -4841,7 +4908,7 @@
         <v>254</v>
       </c>
       <c r="I76" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -4870,7 +4937,7 @@
         <v>253</v>
       </c>
       <c r="I77" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -4899,7 +4966,7 @@
         <v>265</v>
       </c>
       <c r="I78" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -4951,7 +5018,7 @@
         <v>254</v>
       </c>
       <c r="I80" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -4980,7 +5047,7 @@
         <v>261</v>
       </c>
       <c r="I81" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -5009,7 +5076,7 @@
         <v>253</v>
       </c>
       <c r="I82" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -5038,7 +5105,7 @@
         <v>266</v>
       </c>
       <c r="I83" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -5067,7 +5134,7 @@
         <v>253</v>
       </c>
       <c r="I84" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -5096,7 +5163,7 @@
         <v>253</v>
       </c>
       <c r="I85" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -5125,7 +5192,7 @@
         <v>253</v>
       </c>
       <c r="I86" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -5154,7 +5221,7 @@
         <v>253</v>
       </c>
       <c r="I87" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -5183,7 +5250,7 @@
         <v>253</v>
       </c>
       <c r="I88" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -5212,7 +5279,7 @@
         <v>257</v>
       </c>
       <c r="I89" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -5241,7 +5308,7 @@
         <v>265</v>
       </c>
       <c r="I90" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -5270,7 +5337,7 @@
         <v>257</v>
       </c>
       <c r="I91" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -5299,7 +5366,7 @@
         <v>267</v>
       </c>
       <c r="I92" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -5328,7 +5395,7 @@
         <v>257</v>
       </c>
       <c r="I93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -5357,7 +5424,7 @@
         <v>267</v>
       </c>
       <c r="I94" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -5386,7 +5453,7 @@
         <v>253</v>
       </c>
       <c r="I95" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -5415,7 +5482,7 @@
         <v>262</v>
       </c>
       <c r="I96" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -5467,7 +5534,7 @@
         <v>267</v>
       </c>
       <c r="I98" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -5496,7 +5563,7 @@
         <v>261</v>
       </c>
       <c r="I99" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -5554,7 +5621,7 @@
         <v>254</v>
       </c>
       <c r="I101" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
@@ -5583,7 +5650,7 @@
         <v>268</v>
       </c>
       <c r="I102" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -5612,7 +5679,7 @@
         <v>265</v>
       </c>
       <c r="I103" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -5641,7 +5708,7 @@
         <v>253</v>
       </c>
       <c r="I104" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -5670,7 +5737,7 @@
         <v>253</v>
       </c>
       <c r="I105" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -5699,7 +5766,7 @@
         <v>253</v>
       </c>
       <c r="I106" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -5728,7 +5795,7 @@
         <v>253</v>
       </c>
       <c r="I107" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -5757,7 +5824,7 @@
         <v>253</v>
       </c>
       <c r="I108" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -5786,7 +5853,7 @@
         <v>258</v>
       </c>
       <c r="I109" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -5815,7 +5882,7 @@
         <v>254</v>
       </c>
       <c r="I110" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -5844,7 +5911,7 @@
         <v>253</v>
       </c>
       <c r="I111" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
@@ -5873,7 +5940,7 @@
         <v>256</v>
       </c>
       <c r="I112" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
@@ -5902,7 +5969,7 @@
         <v>253</v>
       </c>
       <c r="I113" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
@@ -5931,7 +5998,7 @@
         <v>258</v>
       </c>
       <c r="I114" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
@@ -5960,7 +6027,7 @@
         <v>253</v>
       </c>
       <c r="I115" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
@@ -6012,7 +6079,7 @@
         <v>253</v>
       </c>
       <c r="I117" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -6041,7 +6108,7 @@
         <v>253</v>
       </c>
       <c r="I118" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
@@ -6070,7 +6137,7 @@
         <v>253</v>
       </c>
       <c r="I119" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -6099,7 +6166,7 @@
         <v>253</v>
       </c>
       <c r="I120" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
@@ -6128,7 +6195,7 @@
         <v>253</v>
       </c>
       <c r="I121" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
@@ -6157,7 +6224,7 @@
         <v>253</v>
       </c>
       <c r="I122" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
@@ -6186,7 +6253,7 @@
         <v>253</v>
       </c>
       <c r="I123" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
@@ -6215,7 +6282,7 @@
         <v>253</v>
       </c>
       <c r="I124" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
@@ -6244,7 +6311,7 @@
         <v>253</v>
       </c>
       <c r="I125" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
@@ -6273,7 +6340,7 @@
         <v>256</v>
       </c>
       <c r="I126" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
@@ -6302,7 +6369,7 @@
         <v>253</v>
       </c>
       <c r="I127" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
@@ -6331,7 +6398,7 @@
         <v>253</v>
       </c>
       <c r="I128" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
@@ -6360,7 +6427,7 @@
         <v>253</v>
       </c>
       <c r="I129" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
@@ -6389,7 +6456,7 @@
         <v>253</v>
       </c>
       <c r="I130" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
@@ -6418,7 +6485,7 @@
         <v>253</v>
       </c>
       <c r="I131" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
@@ -6476,7 +6543,7 @@
         <v>253</v>
       </c>
       <c r="I133" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
@@ -6534,7 +6601,7 @@
         <v>253</v>
       </c>
       <c r="I135" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
@@ -6563,7 +6630,7 @@
         <v>253</v>
       </c>
       <c r="I136" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
@@ -6592,7 +6659,7 @@
         <v>253</v>
       </c>
       <c r="I137" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
@@ -6621,7 +6688,7 @@
         <v>253</v>
       </c>
       <c r="I138" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
@@ -6650,7 +6717,7 @@
         <v>253</v>
       </c>
       <c r="I139" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
@@ -6679,7 +6746,7 @@
         <v>253</v>
       </c>
       <c r="I140" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
@@ -6708,7 +6775,7 @@
         <v>256</v>
       </c>
       <c r="I141" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
@@ -6737,7 +6804,7 @@
         <v>257</v>
       </c>
       <c r="I142" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
@@ -6763,7 +6830,7 @@
         <v>257</v>
       </c>
       <c r="I143" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
@@ -6792,7 +6859,7 @@
         <v>253</v>
       </c>
       <c r="I144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
@@ -6821,7 +6888,7 @@
         <v>265</v>
       </c>
       <c r="I145" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
@@ -6850,7 +6917,7 @@
         <v>253</v>
       </c>
       <c r="I146" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
@@ -6879,7 +6946,7 @@
         <v>253</v>
       </c>
       <c r="I147" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
@@ -6908,7 +6975,7 @@
         <v>267</v>
       </c>
       <c r="I148" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
@@ -6937,7 +7004,7 @@
         <v>257</v>
       </c>
       <c r="I149" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
@@ -6995,7 +7062,7 @@
         <v>256</v>
       </c>
       <c r="I151" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
@@ -7024,7 +7091,7 @@
         <v>269</v>
       </c>
       <c r="I152" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
@@ -7053,7 +7120,7 @@
         <v>253</v>
       </c>
       <c r="I153" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
@@ -7082,7 +7149,7 @@
         <v>253</v>
       </c>
       <c r="I154" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
@@ -7111,7 +7178,7 @@
         <v>259</v>
       </c>
       <c r="I155" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
@@ -7140,7 +7207,7 @@
         <v>253</v>
       </c>
       <c r="I156" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
@@ -7163,7 +7230,7 @@
         <v>253</v>
       </c>
       <c r="I157" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
@@ -7192,7 +7259,7 @@
         <v>254</v>
       </c>
       <c r="I158" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
@@ -7221,7 +7288,7 @@
         <v>257</v>
       </c>
       <c r="I159" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
@@ -7250,7 +7317,7 @@
         <v>253</v>
       </c>
       <c r="I160" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
@@ -7279,7 +7346,7 @@
         <v>254</v>
       </c>
       <c r="I161" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
@@ -7331,7 +7398,7 @@
         <v>253</v>
       </c>
       <c r="I163" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
@@ -7360,7 +7427,7 @@
         <v>253</v>
       </c>
       <c r="I164" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
@@ -7435,7 +7502,7 @@
         <v>253</v>
       </c>
       <c r="I167" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
@@ -7464,7 +7531,7 @@
         <v>253</v>
       </c>
       <c r="I168" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
@@ -7493,7 +7560,7 @@
         <v>256</v>
       </c>
       <c r="I169" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
@@ -7522,7 +7589,7 @@
         <v>253</v>
       </c>
       <c r="I170" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
@@ -7551,7 +7618,7 @@
         <v>253</v>
       </c>
       <c r="I171" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
@@ -7574,7 +7641,7 @@
         <v>254</v>
       </c>
       <c r="I172" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
@@ -7603,7 +7670,7 @@
         <v>253</v>
       </c>
       <c r="I173" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
@@ -7632,7 +7699,7 @@
         <v>254</v>
       </c>
       <c r="I174" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
@@ -7661,7 +7728,7 @@
         <v>253</v>
       </c>
       <c r="I175" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
@@ -7687,7 +7754,7 @@
         <v>253</v>
       </c>
       <c r="I176" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
@@ -7716,7 +7783,7 @@
         <v>253</v>
       </c>
       <c r="I177" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
@@ -7745,7 +7812,7 @@
         <v>258</v>
       </c>
       <c r="I178" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
@@ -7774,7 +7841,7 @@
         <v>253</v>
       </c>
       <c r="I179" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
@@ -7803,7 +7870,7 @@
         <v>257</v>
       </c>
       <c r="I180" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
@@ -7832,7 +7899,7 @@
         <v>268</v>
       </c>
       <c r="I181" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
@@ -7858,7 +7925,7 @@
         <v>254</v>
       </c>
       <c r="I182" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
@@ -7910,7 +7977,7 @@
         <v>253</v>
       </c>
       <c r="I184" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
@@ -7939,7 +8006,7 @@
         <v>253</v>
       </c>
       <c r="I185" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
@@ -7968,7 +8035,7 @@
         <v>253</v>
       </c>
       <c r="I186" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
@@ -8043,7 +8110,7 @@
         <v>254</v>
       </c>
       <c r="I189" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
@@ -8072,7 +8139,7 @@
         <v>253</v>
       </c>
       <c r="I190" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
@@ -8101,7 +8168,7 @@
         <v>253</v>
       </c>
       <c r="I191" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
@@ -8130,7 +8197,7 @@
         <v>253</v>
       </c>
       <c r="I192" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
@@ -8159,7 +8226,7 @@
         <v>253</v>
       </c>
       <c r="I193" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
@@ -8188,7 +8255,7 @@
         <v>253</v>
       </c>
       <c r="I194" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
@@ -8217,7 +8284,7 @@
         <v>253</v>
       </c>
       <c r="I195" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
@@ -8246,7 +8313,7 @@
         <v>254</v>
       </c>
       <c r="I196" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
@@ -8275,7 +8342,7 @@
         <v>254</v>
       </c>
       <c r="I197" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
@@ -8304,7 +8371,7 @@
         <v>253</v>
       </c>
       <c r="I198" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
@@ -8333,7 +8400,7 @@
         <v>254</v>
       </c>
       <c r="I199" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
@@ -8362,7 +8429,7 @@
         <v>253</v>
       </c>
       <c r="I200" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
@@ -8414,7 +8481,7 @@
         <v>253</v>
       </c>
       <c r="I202" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
@@ -8443,7 +8510,7 @@
         <v>254</v>
       </c>
       <c r="I203" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
@@ -8472,7 +8539,7 @@
         <v>253</v>
       </c>
       <c r="I204" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
@@ -8501,7 +8568,7 @@
         <v>253</v>
       </c>
       <c r="I205" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
@@ -8530,7 +8597,7 @@
         <v>253</v>
       </c>
       <c r="I206" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
@@ -8559,7 +8626,7 @@
         <v>256</v>
       </c>
       <c r="I207" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
@@ -8588,7 +8655,7 @@
         <v>253</v>
       </c>
       <c r="I208" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
@@ -8617,7 +8684,7 @@
         <v>253</v>
       </c>
       <c r="I209" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
@@ -8646,7 +8713,7 @@
         <v>253</v>
       </c>
       <c r="I210" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
@@ -8675,7 +8742,7 @@
         <v>253</v>
       </c>
       <c r="I211" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
@@ -8704,7 +8771,7 @@
         <v>253</v>
       </c>
       <c r="I212" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
@@ -8733,7 +8800,7 @@
         <v>270</v>
       </c>
       <c r="I213" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
@@ -8808,7 +8875,7 @@
         <v>253</v>
       </c>
       <c r="I216" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
@@ -8860,7 +8927,7 @@
         <v>253</v>
       </c>
       <c r="I218" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
@@ -8889,7 +8956,7 @@
         <v>253</v>
       </c>
       <c r="I219" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
@@ -8918,7 +8985,7 @@
         <v>253</v>
       </c>
       <c r="I220" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
@@ -8947,7 +9014,7 @@
         <v>256</v>
       </c>
       <c r="I221" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
@@ -8976,7 +9043,7 @@
         <v>256</v>
       </c>
       <c r="I222" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
@@ -9005,7 +9072,7 @@
         <v>253</v>
       </c>
       <c r="I223" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
@@ -9034,7 +9101,7 @@
         <v>253</v>
       </c>
       <c r="I224" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
@@ -9063,7 +9130,7 @@
         <v>258</v>
       </c>
       <c r="I225" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
@@ -9092,7 +9159,7 @@
         <v>271</v>
       </c>
       <c r="I226" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
@@ -9121,7 +9188,7 @@
         <v>253</v>
       </c>
       <c r="I227" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
@@ -9150,7 +9217,7 @@
         <v>253</v>
       </c>
       <c r="I228" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
@@ -9179,7 +9246,7 @@
         <v>253</v>
       </c>
       <c r="I229" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
@@ -9231,7 +9298,7 @@
         <v>254</v>
       </c>
       <c r="I231" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
@@ -9260,7 +9327,7 @@
         <v>256</v>
       </c>
       <c r="I232" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
@@ -9289,7 +9356,7 @@
         <v>256</v>
       </c>
       <c r="I233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
@@ -9318,7 +9385,7 @@
         <v>253</v>
       </c>
       <c r="I234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
@@ -9370,7 +9437,7 @@
         <v>253</v>
       </c>
       <c r="I236" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
@@ -9399,7 +9466,7 @@
         <v>257</v>
       </c>
       <c r="I237" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
@@ -9428,7 +9495,7 @@
         <v>253</v>
       </c>
       <c r="I238" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -9441,7 +9508,7 @@
   <dimension ref="A1:E245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E224" sqref="E224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9463,7 +9530,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E1" t="s">
         <v>273</v>
@@ -9494,7 +9561,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E3" t="s">
         <v>289</v>
@@ -9511,10 +9578,10 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E4" t="s">
         <v>557</v>
-      </c>
-      <c r="E4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9522,7 +9589,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -9536,16 +9603,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" t="s">
         <v>561</v>
-      </c>
-      <c r="E6" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -9553,16 +9620,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>563</v>
+      </c>
+      <c r="E7" t="s">
         <v>564</v>
-      </c>
-      <c r="E7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -9576,10 +9643,10 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -9593,10 +9660,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -9604,16 +9671,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -9621,16 +9688,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -9644,10 +9711,10 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -9661,10 +9728,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E13" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -9678,10 +9745,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -9695,10 +9762,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -9706,16 +9773,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>563</v>
+      </c>
+      <c r="E16" t="s">
         <v>575</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>564</v>
-      </c>
-      <c r="E16" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -9723,16 +9790,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E17" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -9746,10 +9813,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E18" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -9763,7 +9830,7 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E19" t="s">
         <v>291</v>
@@ -9774,16 +9841,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E20" t="s">
-        <v>518</v>
+        <v>756</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -9791,16 +9858,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E21" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -9808,16 +9875,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E22" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -9825,16 +9892,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
       </c>
       <c r="D23" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -9842,16 +9909,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E24" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -9859,16 +9926,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -9876,16 +9943,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -9899,10 +9966,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E27" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -9916,10 +9983,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -9927,16 +9994,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -9944,16 +10011,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E30" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -9961,16 +10028,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -9978,7 +10045,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -9992,16 +10059,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E33" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -10015,10 +10082,10 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E34" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -10026,16 +10093,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E35" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -10049,10 +10116,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E36" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -10066,10 +10133,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E37" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -10077,16 +10144,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -10100,10 +10167,10 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -10117,10 +10184,10 @@
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E40" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -10128,16 +10195,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
       </c>
       <c r="D41" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E41" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -10145,16 +10212,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C42" t="s">
         <v>11</v>
       </c>
       <c r="D42" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E42" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -10168,10 +10235,10 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E43" t="s">
-        <v>605</v>
+        <v>757</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -10179,16 +10246,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="D44" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E44" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -10202,10 +10269,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E45" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -10219,10 +10286,10 @@
         <v>6</v>
       </c>
       <c r="D46" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E46" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -10236,10 +10303,10 @@
         <v>6</v>
       </c>
       <c r="D47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E47" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -10253,10 +10320,10 @@
         <v>6</v>
       </c>
       <c r="D48" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E48" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -10264,16 +10331,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E49" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -10287,10 +10354,10 @@
         <v>6</v>
       </c>
       <c r="D50" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E50" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -10304,10 +10371,10 @@
         <v>6</v>
       </c>
       <c r="D51" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E51" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -10321,10 +10388,10 @@
         <v>6</v>
       </c>
       <c r="D52" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E52" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -10338,10 +10405,10 @@
         <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E53" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -10349,16 +10416,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C54" t="s">
         <v>6</v>
       </c>
       <c r="D54" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E54" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -10366,16 +10433,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="D55" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E55" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
@@ -10383,16 +10450,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E56" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -10400,16 +10467,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C57" t="s">
         <v>6</v>
       </c>
       <c r="D57" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E57" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -10417,16 +10484,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C58" t="s">
         <v>11</v>
       </c>
       <c r="D58" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E58" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -10440,10 +10507,10 @@
         <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E59" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -10457,10 +10524,10 @@
         <v>6</v>
       </c>
       <c r="D60" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E60" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -10474,7 +10541,7 @@
         <v>6</v>
       </c>
       <c r="D61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E61" t="s">
         <v>289</v>
@@ -10485,13 +10552,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C62" t="s">
         <v>6</v>
       </c>
       <c r="D62" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E62" t="s">
         <v>289</v>
@@ -10502,16 +10569,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="D63" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E63" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -10525,10 +10592,10 @@
         <v>6</v>
       </c>
       <c r="D64" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E64" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -10542,7 +10609,7 @@
         <v>6</v>
       </c>
       <c r="D65" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E65" t="s">
         <v>289</v>
@@ -10559,7 +10626,7 @@
         <v>6</v>
       </c>
       <c r="D66" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E66" t="s">
         <v>289</v>
@@ -10576,7 +10643,7 @@
         <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E67" t="s">
         <v>303</v>
@@ -10593,10 +10660,10 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E68" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -10610,10 +10677,10 @@
         <v>6</v>
       </c>
       <c r="D69" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -10627,7 +10694,7 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E70" t="s">
         <v>304</v>
@@ -10638,16 +10705,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C71" t="s">
         <v>6</v>
       </c>
       <c r="D71" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E71" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -10655,16 +10722,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
       </c>
       <c r="D72" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E72" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -10692,10 +10759,10 @@
         <v>4</v>
       </c>
       <c r="D74" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E74" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -10717,16 +10784,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
       </c>
       <c r="D76" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E76" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -10740,10 +10807,10 @@
         <v>6</v>
       </c>
       <c r="D77" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E77" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -10757,10 +10824,10 @@
         <v>6</v>
       </c>
       <c r="D78" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E78" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -10774,7 +10841,7 @@
         <v>6</v>
       </c>
       <c r="D79" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E79" t="s">
         <v>289</v>
@@ -10785,7 +10852,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -10799,7 +10866,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C81" t="s">
         <v>11</v>
@@ -10819,10 +10886,10 @@
         <v>6</v>
       </c>
       <c r="D82" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E82" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
@@ -10836,10 +10903,10 @@
         <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E83" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
@@ -10847,16 +10914,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E84" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
@@ -10864,16 +10931,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E85" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
@@ -10887,10 +10954,10 @@
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E86" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -10898,16 +10965,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E87" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -10921,10 +10988,10 @@
         <v>6</v>
       </c>
       <c r="D88" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E88" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -10938,10 +11005,10 @@
         <v>6</v>
       </c>
       <c r="D89" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E89" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
@@ -10955,7 +11022,7 @@
         <v>6</v>
       </c>
       <c r="D90" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E90" t="s">
         <v>289</v>
@@ -10972,7 +11039,7 @@
         <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
@@ -10980,16 +11047,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C92" t="s">
         <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E92" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
@@ -11003,7 +11070,7 @@
         <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
@@ -11011,16 +11078,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
       </c>
       <c r="D94" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E94" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
@@ -11034,10 +11101,10 @@
         <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E95" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
@@ -11051,7 +11118,7 @@
         <v>4</v>
       </c>
       <c r="D96" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E96" t="s">
         <v>316</v>
@@ -11068,10 +11135,10 @@
         <v>6</v>
       </c>
       <c r="D97" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E97" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -11085,10 +11152,10 @@
         <v>4</v>
       </c>
       <c r="D98" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E98" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -11102,10 +11169,10 @@
         <v>6</v>
       </c>
       <c r="D99" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E99" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -11113,16 +11180,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C100" t="s">
         <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E100" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -11130,13 +11197,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
       </c>
       <c r="D101" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E101" t="s">
         <v>318</v>
@@ -11153,7 +11220,7 @@
         <v>6</v>
       </c>
       <c r="D102" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E102" t="s">
         <v>289</v>
@@ -11170,10 +11237,10 @@
         <v>6</v>
       </c>
       <c r="D103" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E103" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -11187,10 +11254,10 @@
         <v>4</v>
       </c>
       <c r="D104" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E104" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -11198,7 +11265,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C105" t="s">
         <v>15</v>
@@ -11212,16 +11279,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C106" t="s">
         <v>11</v>
       </c>
       <c r="D106" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E106" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -11235,10 +11302,10 @@
         <v>4</v>
       </c>
       <c r="D107" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E107" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -11252,7 +11319,7 @@
         <v>4</v>
       </c>
       <c r="D108" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E108" t="s">
         <v>322</v>
@@ -11269,7 +11336,7 @@
         <v>4</v>
       </c>
       <c r="D109" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E109" t="s">
         <v>322</v>
@@ -11286,7 +11353,7 @@
         <v>4</v>
       </c>
       <c r="D110" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E110" t="s">
         <v>322</v>
@@ -11297,7 +11364,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C111" t="s">
         <v>17</v>
@@ -11317,10 +11384,10 @@
         <v>6</v>
       </c>
       <c r="D112" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E112" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -11328,13 +11395,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
       </c>
       <c r="D113" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E113" t="s">
         <v>324</v>
@@ -11351,10 +11418,10 @@
         <v>11</v>
       </c>
       <c r="D114" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E114" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -11368,10 +11435,10 @@
         <v>6</v>
       </c>
       <c r="D115" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E115" t="s">
-        <v>379</v>
+        <v>758</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -11393,16 +11460,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C117" t="s">
         <v>17</v>
       </c>
       <c r="D117" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E117" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -11416,10 +11483,10 @@
         <v>6</v>
       </c>
       <c r="D118" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E118" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -11427,16 +11494,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C119" t="s">
         <v>11</v>
       </c>
       <c r="D119" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E119" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -11444,16 +11511,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C120" t="s">
         <v>11</v>
       </c>
       <c r="D120" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E120" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -11467,10 +11534,10 @@
         <v>11</v>
       </c>
       <c r="D121" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E121" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -11484,10 +11551,10 @@
         <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E122" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -11501,10 +11568,10 @@
         <v>11</v>
       </c>
       <c r="D123" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E123" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -11512,16 +11579,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C124" t="s">
         <v>11</v>
       </c>
       <c r="D124" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E124" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -11529,16 +11596,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C125" t="s">
         <v>11</v>
       </c>
       <c r="D125" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E125" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -11552,10 +11619,10 @@
         <v>6</v>
       </c>
       <c r="D126" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E126" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -11563,16 +11630,16 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
       </c>
       <c r="D127" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E127" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -11580,16 +11647,16 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C128" t="s">
         <v>6</v>
       </c>
       <c r="D128" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E128" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -11603,10 +11670,10 @@
         <v>6</v>
       </c>
       <c r="D129" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E129" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -11614,16 +11681,16 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C130" t="s">
         <v>11</v>
       </c>
       <c r="D130" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E130" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -11631,7 +11698,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C131" t="s">
         <v>11</v>
@@ -11645,16 +11712,16 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C132" t="s">
         <v>11</v>
       </c>
       <c r="D132" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E132" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -11662,7 +11729,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C133" t="s">
         <v>11</v>
@@ -11676,16 +11743,16 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C134" t="s">
         <v>11</v>
       </c>
       <c r="D134" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E134" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -11699,10 +11766,10 @@
         <v>6</v>
       </c>
       <c r="D135" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E135" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -11716,10 +11783,10 @@
         <v>6</v>
       </c>
       <c r="D136" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E136" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -11733,7 +11800,7 @@
         <v>6</v>
       </c>
       <c r="D137" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E137" t="s">
         <v>289</v>
@@ -11750,10 +11817,10 @@
         <v>6</v>
       </c>
       <c r="D138" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E138" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -11767,7 +11834,7 @@
         <v>6</v>
       </c>
       <c r="D139" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E139" t="s">
         <v>289</v>
@@ -11784,10 +11851,10 @@
         <v>11</v>
       </c>
       <c r="D140" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E140" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -11795,16 +11862,16 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C141" t="s">
         <v>11</v>
       </c>
       <c r="D141" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E141" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -11812,16 +11879,16 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C142" t="s">
         <v>11</v>
       </c>
       <c r="D142" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E142" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -11835,10 +11902,10 @@
         <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E143" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -11860,13 +11927,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C145" t="s">
         <v>6</v>
       </c>
       <c r="D145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E145" t="s">
         <v>289</v>
@@ -11877,16 +11944,16 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C146" t="s">
         <v>15</v>
       </c>
       <c r="D146" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E146" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -11900,10 +11967,10 @@
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E147" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -11925,16 +11992,16 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C149" t="s">
         <v>11</v>
       </c>
       <c r="D149" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E149" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -11942,16 +12009,16 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C150" t="s">
         <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E150" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -11959,16 +12026,16 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
       </c>
       <c r="D151" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E151" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -11976,16 +12043,16 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C152" t="s">
         <v>11</v>
       </c>
       <c r="D152" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -11999,10 +12066,10 @@
         <v>6</v>
       </c>
       <c r="D153" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E153" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -12010,16 +12077,16 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
       </c>
       <c r="D154" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E154" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -12033,10 +12100,10 @@
         <v>15</v>
       </c>
       <c r="D155" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E155" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -12050,10 +12117,10 @@
         <v>6</v>
       </c>
       <c r="D156" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E156" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -12061,16 +12128,16 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C157" t="s">
         <v>4</v>
       </c>
       <c r="D157" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -12084,10 +12151,10 @@
         <v>11</v>
       </c>
       <c r="D158" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E158" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -12095,16 +12162,16 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -12112,16 +12179,16 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E160" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -12135,10 +12202,10 @@
         <v>6</v>
       </c>
       <c r="D161" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E161" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -12146,16 +12213,16 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C162" t="s">
         <v>6</v>
       </c>
       <c r="D162" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E162" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -12169,7 +12236,7 @@
         <v>6</v>
       </c>
       <c r="D163" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E163" t="s">
         <v>289</v>
@@ -12186,7 +12253,7 @@
         <v>6</v>
       </c>
       <c r="D164" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E164" t="s">
         <v>289</v>
@@ -12197,16 +12264,16 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C165" t="s">
         <v>15</v>
       </c>
       <c r="D165" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E165" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -12220,10 +12287,10 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E166" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -12237,10 +12304,10 @@
         <v>6</v>
       </c>
       <c r="D167" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E167" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -12254,10 +12321,10 @@
         <v>6</v>
       </c>
       <c r="D168" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E168" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -12265,16 +12332,16 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C169" t="s">
         <v>11</v>
       </c>
       <c r="D169" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E169" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -12288,10 +12355,10 @@
         <v>11</v>
       </c>
       <c r="D170" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E170" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -12305,7 +12372,7 @@
         <v>6</v>
       </c>
       <c r="D171" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E171" t="s">
         <v>289</v>
@@ -12322,7 +12389,7 @@
         <v>6</v>
       </c>
       <c r="D172" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E172" t="s">
         <v>289</v>
@@ -12333,16 +12400,16 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
       </c>
       <c r="D173" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E173" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -12356,10 +12423,10 @@
         <v>6</v>
       </c>
       <c r="D174" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E174" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -12367,16 +12434,16 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C175" t="s">
         <v>11</v>
       </c>
       <c r="D175" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E175" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -12384,13 +12451,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C176" t="s">
         <v>6</v>
       </c>
       <c r="D176" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E176" t="s">
         <v>289</v>
@@ -12401,13 +12468,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C177" t="s">
         <v>6</v>
       </c>
       <c r="D177" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E177" t="s">
         <v>289</v>
@@ -12424,7 +12491,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E178" t="s">
         <v>289</v>
@@ -12441,7 +12508,7 @@
         <v>6</v>
       </c>
       <c r="D179" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E179" t="s">
         <v>289</v>
@@ -12458,7 +12525,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E180" t="s">
         <v>289</v>
@@ -12469,16 +12536,16 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C181" t="s">
         <v>6</v>
       </c>
       <c r="D181" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E181" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -12492,7 +12559,7 @@
         <v>6</v>
       </c>
       <c r="D182" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E182" t="s">
         <v>289</v>
@@ -12509,10 +12576,10 @@
         <v>11</v>
       </c>
       <c r="D183" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E183" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -12520,16 +12587,16 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C184" t="s">
         <v>17</v>
       </c>
       <c r="D184" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E184" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -12543,10 +12610,10 @@
         <v>6</v>
       </c>
       <c r="D185" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E185" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -12554,13 +12621,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C186" t="s">
         <v>15</v>
       </c>
       <c r="D186" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -12568,16 +12635,16 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
       </c>
       <c r="D187" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E187" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -12585,16 +12652,16 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
       </c>
       <c r="D188" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E188" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -12608,10 +12675,10 @@
         <v>6</v>
       </c>
       <c r="D189" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E189" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -12619,16 +12686,16 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C190" t="s">
         <v>11</v>
       </c>
       <c r="D190" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E190" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -12656,10 +12723,10 @@
         <v>11</v>
       </c>
       <c r="D192" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E192" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -12667,16 +12734,16 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C193" t="s">
         <v>15</v>
       </c>
       <c r="D193" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E193" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -12690,7 +12757,7 @@
         <v>6</v>
       </c>
       <c r="D194" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E194" t="s">
         <v>289</v>
@@ -12721,10 +12788,10 @@
         <v>6</v>
       </c>
       <c r="D196" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E196" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -12738,10 +12805,10 @@
         <v>11</v>
       </c>
       <c r="D197" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E197" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -12755,10 +12822,10 @@
         <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E198" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -12780,16 +12847,16 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C200" t="s">
         <v>11</v>
       </c>
       <c r="D200" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E200" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -12797,16 +12864,16 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C201" t="s">
         <v>17</v>
       </c>
       <c r="D201" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E201" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -12820,10 +12887,10 @@
         <v>11</v>
       </c>
       <c r="D202" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E202" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -12837,10 +12904,10 @@
         <v>6</v>
       </c>
       <c r="D203" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E203" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -12854,10 +12921,10 @@
         <v>6</v>
       </c>
       <c r="D204" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E204" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -12865,16 +12932,16 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C205" t="s">
         <v>11</v>
       </c>
       <c r="D205" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E205" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -12888,10 +12955,10 @@
         <v>6</v>
       </c>
       <c r="D206" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E206" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -12899,16 +12966,16 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E207" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -12916,16 +12983,16 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
       </c>
       <c r="D208" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E208" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
@@ -12933,16 +13000,16 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
       </c>
       <c r="D209" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E209" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -12956,10 +13023,10 @@
         <v>6</v>
       </c>
       <c r="D210" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E210" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
@@ -12967,16 +13034,16 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
       </c>
       <c r="D211" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E211" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
@@ -12990,10 +13057,10 @@
         <v>6</v>
       </c>
       <c r="D212" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E212" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
@@ -13001,16 +13068,16 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C213" t="s">
         <v>4</v>
       </c>
       <c r="D213" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E213" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -13018,16 +13085,16 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C214" t="s">
         <v>11</v>
       </c>
       <c r="D214" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E214" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -13041,10 +13108,10 @@
         <v>6</v>
       </c>
       <c r="D215" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E215" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
@@ -13072,10 +13139,10 @@
         <v>6</v>
       </c>
       <c r="D217" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E217" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
@@ -13083,16 +13150,16 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C218" t="s">
         <v>6</v>
       </c>
       <c r="D218" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E218" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
@@ -13106,10 +13173,10 @@
         <v>11</v>
       </c>
       <c r="D219" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E219" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -13123,10 +13190,10 @@
         <v>6</v>
       </c>
       <c r="D220" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E220" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
@@ -13140,10 +13207,10 @@
         <v>6</v>
       </c>
       <c r="D221" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E221" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
@@ -13157,7 +13224,7 @@
         <v>6</v>
       </c>
       <c r="D222" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E222" t="s">
         <v>289</v>
@@ -13174,7 +13241,7 @@
         <v>6</v>
       </c>
       <c r="D223" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E223" t="s">
         <v>289</v>
@@ -13191,10 +13258,10 @@
         <v>6</v>
       </c>
       <c r="D224" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E224" t="s">
-        <v>379</v>
+        <v>758</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -13202,16 +13269,16 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C225" t="s">
         <v>11</v>
       </c>
       <c r="D225" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E225" t="s">
-        <v>379</v>
+        <v>758</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -13225,10 +13292,10 @@
         <v>6</v>
       </c>
       <c r="D226" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E226" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -13236,16 +13303,16 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C227" t="s">
         <v>6</v>
       </c>
       <c r="D227" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E227" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -13253,16 +13320,16 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C228" t="s">
         <v>11</v>
       </c>
       <c r="D228" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E228" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -13270,16 +13337,16 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C229" t="s">
         <v>11</v>
       </c>
       <c r="D229" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E229" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -13287,16 +13354,16 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C230" t="s">
         <v>4</v>
       </c>
       <c r="D230" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E230" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -13304,16 +13371,16 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C231" t="s">
         <v>17</v>
       </c>
       <c r="D231" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E231" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -13327,10 +13394,10 @@
         <v>17</v>
       </c>
       <c r="D232" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E232" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -13338,16 +13405,16 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C233" t="s">
         <v>4</v>
       </c>
       <c r="D233" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E233" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -13355,16 +13422,16 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C234" t="s">
         <v>11</v>
       </c>
       <c r="D234" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E234" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -13372,16 +13439,16 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C235" t="s">
         <v>4</v>
       </c>
       <c r="D235" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E235" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -13395,10 +13462,10 @@
         <v>4</v>
       </c>
       <c r="D236" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -13406,16 +13473,16 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C237" t="s">
         <v>6</v>
       </c>
       <c r="D237" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E237" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -13429,10 +13496,10 @@
         <v>6</v>
       </c>
       <c r="D238" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E238" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -13440,16 +13507,16 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C239" t="s">
         <v>11</v>
       </c>
       <c r="D239" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E239" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -13457,16 +13524,16 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C240" t="s">
         <v>11</v>
       </c>
       <c r="D240" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E240" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -13480,7 +13547,7 @@
         <v>6</v>
       </c>
       <c r="D241" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E241" t="s">
         <v>289</v>
@@ -13497,10 +13564,10 @@
         <v>6</v>
       </c>
       <c r="D242" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E242" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -13514,10 +13581,10 @@
         <v>6</v>
       </c>
       <c r="D243" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E243" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -13525,16 +13592,16 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C244" t="s">
         <v>15</v>
       </c>
       <c r="D244" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E244" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -13542,16 +13609,16 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C245" t="s">
         <v>4</v>
       </c>
       <c r="D245" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E245" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -13563,8 +13630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03516DA5-698B-DB47-A22C-98BF7B2FA21E}">
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E226" sqref="E226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13585,7 +13652,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E1" t="s">
         <v>273</v>
@@ -13633,7 +13700,7 @@
         <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -13667,7 +13734,7 @@
         <v>284</v>
       </c>
       <c r="E6" t="s">
-        <v>290</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -13684,7 +13751,7 @@
         <v>284</v>
       </c>
       <c r="E7" t="s">
-        <v>290</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -13735,7 +13802,7 @@
         <v>282</v>
       </c>
       <c r="E10" t="s">
-        <v>290</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -13752,7 +13819,7 @@
         <v>284</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -13769,7 +13836,7 @@
         <v>282</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -13854,7 +13921,7 @@
         <v>284</v>
       </c>
       <c r="E17" t="s">
-        <v>290</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -13919,7 +13986,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -13953,7 +14020,7 @@
         <v>284</v>
       </c>
       <c r="E23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -13970,7 +14037,7 @@
         <v>284</v>
       </c>
       <c r="E24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -14072,7 +14139,7 @@
         <v>282</v>
       </c>
       <c r="E30" t="s">
-        <v>290</v>
+        <v>592</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -14120,7 +14187,7 @@
         <v>283</v>
       </c>
       <c r="E33" t="s">
-        <v>290</v>
+        <v>764</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -14216,10 +14283,10 @@
         <v>4</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
+        <v>765</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -14267,7 +14334,7 @@
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -14386,7 +14453,7 @@
         <v>284</v>
       </c>
       <c r="E49" t="s">
-        <v>290</v>
+        <v>766</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -14505,7 +14572,7 @@
         <v>286</v>
       </c>
       <c r="E56" t="s">
-        <v>290</v>
+        <v>767</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -14539,7 +14606,7 @@
         <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -14624,7 +14691,7 @@
         <v>284</v>
       </c>
       <c r="E63" t="s">
-        <v>290</v>
+        <v>768</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -14697,7 +14764,7 @@
         <v>283</v>
       </c>
       <c r="E68" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -14821,7 +14888,7 @@
         <v>284</v>
       </c>
       <c r="E76" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
@@ -14889,7 +14956,7 @@
         <v>284</v>
       </c>
       <c r="E80" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
@@ -15664,7 +15731,7 @@
         <v>284</v>
       </c>
       <c r="E127" t="s">
-        <v>333</v>
+        <v>769</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -15715,7 +15782,7 @@
         <v>284</v>
       </c>
       <c r="E130" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -15732,7 +15799,7 @@
         <v>284</v>
       </c>
       <c r="E131" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -15749,7 +15816,7 @@
         <v>282</v>
       </c>
       <c r="E132" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -15766,7 +15833,7 @@
         <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -15783,7 +15850,7 @@
         <v>282</v>
       </c>
       <c r="E134" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -15885,7 +15952,7 @@
         <v>284</v>
       </c>
       <c r="E140" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
@@ -15902,7 +15969,7 @@
         <v>285</v>
       </c>
       <c r="E141" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
@@ -15919,7 +15986,7 @@
         <v>284</v>
       </c>
       <c r="E142" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -15936,7 +16003,7 @@
         <v>284</v>
       </c>
       <c r="E143" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
@@ -15987,7 +16054,7 @@
         <v>286</v>
       </c>
       <c r="E146" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -16004,7 +16071,7 @@
         <v>282</v>
       </c>
       <c r="E147" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -16021,7 +16088,7 @@
         <v>285</v>
       </c>
       <c r="E148" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -16038,7 +16105,7 @@
         <v>284</v>
       </c>
       <c r="E149" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -16055,7 +16122,7 @@
         <v>283</v>
       </c>
       <c r="E150" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -16072,7 +16139,7 @@
         <v>284</v>
       </c>
       <c r="E151" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -16089,7 +16156,7 @@
         <v>282</v>
       </c>
       <c r="E152" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -16123,7 +16190,7 @@
         <v>284</v>
       </c>
       <c r="E154" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -16140,7 +16207,7 @@
         <v>284</v>
       </c>
       <c r="E155" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -16174,7 +16241,7 @@
         <v>283</v>
       </c>
       <c r="E157" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -16191,7 +16258,7 @@
         <v>284</v>
       </c>
       <c r="E158" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -16208,7 +16275,7 @@
         <v>283</v>
       </c>
       <c r="E159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -16225,7 +16292,7 @@
         <v>283</v>
       </c>
       <c r="E160" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -16310,7 +16377,7 @@
         <v>282</v>
       </c>
       <c r="E165" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -16378,7 +16445,7 @@
         <v>282</v>
       </c>
       <c r="E169" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -16395,7 +16462,7 @@
         <v>284</v>
       </c>
       <c r="E170" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -16446,7 +16513,7 @@
         <v>283</v>
       </c>
       <c r="E173" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -16480,7 +16547,7 @@
         <v>284</v>
       </c>
       <c r="E175" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -16616,7 +16683,7 @@
         <v>248</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -16633,7 +16700,7 @@
         <v>284</v>
       </c>
       <c r="E184" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -16667,7 +16734,7 @@
         <v>284</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -16684,7 +16751,7 @@
         <v>284</v>
       </c>
       <c r="E187" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -16735,7 +16802,7 @@
         <v>284</v>
       </c>
       <c r="E190" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -16752,7 +16819,7 @@
         <v>283</v>
       </c>
       <c r="E191" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -16769,7 +16836,7 @@
         <v>284</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -16786,7 +16853,7 @@
         <v>282</v>
       </c>
       <c r="E193" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -16854,7 +16921,7 @@
         <v>284</v>
       </c>
       <c r="E197" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -16888,7 +16955,7 @@
         <v>282</v>
       </c>
       <c r="E199" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -16905,7 +16972,7 @@
         <v>282</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -16922,7 +16989,7 @@
         <v>283</v>
       </c>
       <c r="E201" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -16939,7 +17006,7 @@
         <v>285</v>
       </c>
       <c r="E202" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -16990,7 +17057,7 @@
         <v>284</v>
       </c>
       <c r="E205" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -17058,7 +17125,7 @@
         <v>283</v>
       </c>
       <c r="E209" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
@@ -17126,7 +17193,7 @@
         <v>284</v>
       </c>
       <c r="E213" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
@@ -17143,7 +17210,7 @@
         <v>284</v>
       </c>
       <c r="E214" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
@@ -17228,7 +17295,7 @@
         <v>284</v>
       </c>
       <c r="E219" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
@@ -17330,7 +17397,7 @@
         <v>282</v>
       </c>
       <c r="E225" t="s">
-        <v>379</v>
+        <v>758</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -17381,7 +17448,7 @@
         <v>284</v>
       </c>
       <c r="E228" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -17398,7 +17465,7 @@
         <v>284</v>
       </c>
       <c r="E229" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -17426,7 +17493,7 @@
         <v>283</v>
       </c>
       <c r="E231" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -17443,7 +17510,7 @@
         <v>284</v>
       </c>
       <c r="E232" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -17460,7 +17527,7 @@
         <v>284</v>
       </c>
       <c r="E233" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -17477,7 +17544,7 @@
         <v>285</v>
       </c>
       <c r="E234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -17494,7 +17561,7 @@
         <v>283</v>
       </c>
       <c r="E235" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -17511,7 +17578,7 @@
         <v>283</v>
       </c>
       <c r="E236" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -17562,7 +17629,7 @@
         <v>284</v>
       </c>
       <c r="E239" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -17579,7 +17646,7 @@
         <v>284</v>
       </c>
       <c r="E240" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -17647,7 +17714,7 @@
         <v>284</v>
       </c>
       <c r="E244" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -17664,7 +17731,7 @@
         <v>284</v>
       </c>
       <c r="E245" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
